--- a/DB/CI DB SCHEMA.xlsx
+++ b/DB/CI DB SCHEMA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26207"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9316015-C08F-4E09-838A-1C6CD453F681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2C1EF45-D6CB-4C4C-99BD-D26DB48940CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="123">
   <si>
     <t>REGISTRATION</t>
   </si>
@@ -364,6 +364,15 @@
   </si>
   <si>
     <t>FK(MISSION.MISSIONID),PK(USERID,MISSIONID)</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>fk(status.status code</t>
   </si>
   <si>
     <t>ADMIN</t>
@@ -894,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="J211" sqref="J211"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="I204" sqref="I204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3646,14 +3655,24 @@
       <c r="H206" s="6"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="13"/>
-      <c r="B207" s="13"/>
-      <c r="C207" s="13"/>
-      <c r="D207" s="13"/>
-      <c r="E207" s="13"/>
-      <c r="F207" s="13"/>
-      <c r="G207" s="13"/>
-      <c r="H207" s="14"/>
+      <c r="A207" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207" s="3"/>
+      <c r="G207" s="8"/>
+      <c r="H207" s="6" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="13"/>
@@ -3677,7 +3696,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B210" s="16"/>
       <c r="C210" s="16"/>
@@ -3725,7 +3744,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>10</v>
@@ -3973,7 +3992,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="E230" s="17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F230" s="18"/>
     </row>
@@ -3983,7 +4002,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B232" s="15"/>
       <c r="C232" s="15"/>
@@ -4031,7 +4050,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>17</v>
@@ -4085,7 +4104,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>17</v>
@@ -4103,7 +4122,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>59</v>
@@ -4121,7 +4140,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B240" s="5" t="s">
         <v>10</v>
